--- a/biology/Médecine/Guillaume_Mauquest_de_La_Motte/Guillaume_Mauquest_de_La_Motte.xlsx
+++ b/biology/Médecine/Guillaume_Mauquest_de_La_Motte/Guillaume_Mauquest_de_La_Motte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Mauquest de La Motte (27 juin 1655 à Valognes - 27 juillet 1737), est un chirurgien français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guillaume Mauquest de La Motte fit ses études médicales à Paris, et se livra surtout à la chirurgie, qu'il étudia pendant cinq ans à l'Hôtel-Dieu. Après avoir obtenu le titre de docteur, il revint dans sa région natale, où il se livra, pendant plus de cinquante ans, à la pratique de la chirurgie et de l'obstétrique. Ce sont les résultats de sa longue expérience qui forment la plus grande partie des ouvrages qu'il nous a laissés. Son Traité d'accouchement, un des meilleurs qui aient été publiés sur cette matière, eut plusieurs éditions. Il en fut de même de son Traité de chirurgie.
 Il s'est marié en 1684 (ou 1690 ?) à Valognes avec Marguerite Laisne de Vaudumont (née en 1660) avec laquelle il aura six enfants.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertations sur la génération et la superfétation, Paris, in-8° ;
 Traité des accouchements naturels, non naturels et contre nature, Paris, chez Laurent d'Houry, 1721, in-4°
